--- a/data-raw/302870_Zhu_CSH-QTOF_lipidomics.xlsx
+++ b/data-raw/302870_Zhu_CSH-QTOF_lipidomics.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="1188">
   <si>
     <t>QC</t>
   </si>
@@ -3589,6 +3589,9 @@
   </si>
   <si>
     <t>MD110D</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -4623,7 +4626,7 @@
   <dimension ref="A1:BA613"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5502,7 +5505,9 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>1187</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
